--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1218A97-C551-45D2-A2A1-88E269C405E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47B801-DED7-412D-BA27-8C5A331153C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="1308" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
+    <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,18 +31,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>go</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Comparison Type</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>7H,K4,7G,8E</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>OppName</t>
+  </si>
+  <si>
+    <t>sales order</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TCV</t>
+  </si>
+  <si>
+    <t>Div Code</t>
+  </si>
+  <si>
+    <t>SignProbability</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>contain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,8 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,33 +456,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16551FE8-37C6-4EB8-8EEC-8FE1CD7E51C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0030F9-E72B-4148-ABA5-5BF7CFC1B7CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47B801-DED7-412D-BA27-8C5A331153C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E61C7-19CF-4CAE-A776-1249481A9A8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
+    <sheet name="config" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Field Name</t>
   </si>
@@ -48,18 +49,12 @@
     <t>7H,K4,7G,8E</t>
   </si>
   <si>
-    <t>Accepted</t>
-  </si>
-  <si>
     <t>OppName</t>
   </si>
   <si>
     <t>sales order</t>
   </si>
   <si>
-    <t>Declined</t>
-  </si>
-  <si>
     <t>IMT</t>
   </si>
   <si>
@@ -91,6 +86,18 @@
   </si>
   <si>
     <t>contain</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>comparison type values</t>
+  </si>
+  <si>
+    <t>Include values</t>
   </si>
 </sst>
 </file>
@@ -457,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0030F9-E72B-4148-ABA5-5BF7CFC1B7CB}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +478,7 @@
     <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,101 +492,167 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465A4A4F-0EC5-4A50-B64D-53A9E70C507A}">
+          <x14:formula1>
+            <xm:f>config!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66AA54EB-CB7C-4657-ACB6-C586FDE1B824}">
+          <x14:formula1>
+            <xm:f>config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BC86F6-9BB9-479F-9F33-E01D1435702D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\IBMContractNotifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E61C7-19CF-4CAE-A776-1249481A9A8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D69EA0-2549-4FA6-B8CE-863CD95052DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
+    <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Field Name</t>
   </si>
@@ -98,13 +98,28 @@
   </si>
   <si>
     <t>Include values</t>
+  </si>
+  <si>
+    <t>Sender Email:</t>
+  </si>
+  <si>
+    <t>Sender Email password:</t>
+  </si>
+  <si>
+    <t>ibmcmsender@gmail.com</t>
+  </si>
+  <si>
+    <t>135791113M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +135,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,20 +167,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,29 +518,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0030F9-E72B-4148-ABA5-5BF7CFC1B7CB}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -589,6 +642,7 @@
       <c r="D9" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="U+f9vJBtLbk4UfGXayKnOR6/1wAP6fK4cEbrZO1Mw+fKWb9icPdFP3j07BMRXAm1wnYv4SKrdbcafsS6tKcI9w==" saltValue="u70E3bh1MxxgtpghGwKG4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -596,15 +650,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465A4A4F-0EC5-4A50-B64D-53A9E70C507A}">
           <x14:formula1>
-            <xm:f>config!$A$2:$A$3</xm:f>
+            <xm:f>config!$A$5:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66AA54EB-CB7C-4657-ACB6-C586FDE1B824}">
           <x14:formula1>
-            <xm:f>config!$B$2:$B$3</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -614,46 +668,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BC86F6-9BB9-479F-9F33-E01D1435702D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vNVNUZsHpf/jhRLumMnSX9qsFiGTrd86WHHN79J/BoWtqo5w/IIFzifiqRnt92kNzJigmQXVmkaug8k3jlPiKg==" saltValue="7yAaWSp9ka3/jcENuj7zNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{22C90184-816F-406D-BFC1-3A8A63AFF15A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D69EA0-2549-4FA6-B8CE-863CD95052DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968AC6E-C77A-48FF-BEF0-B6EEB67A0256}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>comparison type values</t>
   </si>
   <si>
-    <t>Include values</t>
-  </si>
-  <si>
     <t>Sender Email:</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>135791113M</t>
+  </si>
+  <si>
+    <t>Included values</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,18 +683,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vNVNUZsHpf/jhRLumMnSX9qsFiGTrd86WHHN79J/BoWtqo5w/IIFzifiqRnt92kNzJigmQXVmkaug8k3jlPiKg==" saltValue="7yAaWSp9ka3/jcENuj7zNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uLqQ+O3daP7Bt5EhpZFgflt4Advgcujs2UquQ7pnOvzld2oCbWTqdeM8D0LluiGk9yGbm8ViiwQ6lxrIur7X9Q==" saltValue="0qry8+YqDsH3e422Ed8Ukg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>

--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968AC6E-C77A-48FF-BEF0-B6EEB67A0256}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788FA79-A361-4D62-B9A3-62A898439029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
@@ -103,13 +103,13 @@
     <t>Sender Email password:</t>
   </si>
   <si>
-    <t>ibmcmsender@gmail.com</t>
-  </si>
-  <si>
     <t>135791113M</t>
   </si>
   <si>
     <t>Included values</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkkkkknibmcnsender@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{22C90184-816F-406D-BFC1-3A8A63AFF15A}"/>
+    <hyperlink ref="B1" r:id="rId1" display="ibmcmsender@gmail.com" xr:uid="{22C90184-816F-406D-BFC1-3A8A63AFF15A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788FA79-A361-4D62-B9A3-62A898439029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2766F-5EFB-4257-96CC-511795A49C27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <t>Included values</t>
   </si>
   <si>
-    <t>kkkkkkkkkkkkkkkkkknibmcnsender@gmail.com</t>
+    <t>ibmcnsender@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2766F-5EFB-4257-96CC-511795A49C27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15316D5E-045A-4ED2-8E9F-837F837297EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="1572" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Field Name</t>
   </si>
@@ -97,29 +97,14 @@
     <t>comparison type values</t>
   </si>
   <si>
-    <t>Sender Email:</t>
-  </si>
-  <si>
-    <t>Sender Email password:</t>
-  </si>
-  <si>
-    <t>135791113M</t>
-  </si>
-  <si>
     <t>Included values</t>
-  </si>
-  <si>
-    <t>ibmcnsender@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode=";;;**"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,27 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,11 +138,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -187,23 +157,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0030F9-E72B-4148-ABA5-5BF7CFC1B7CB}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,13 +493,13 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -650,13 +608,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{465A4A4F-0EC5-4A50-B64D-53A9E70C507A}">
           <x14:formula1>
-            <xm:f>config!$A$5:$A$6</xm:f>
+            <xm:f>config!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66AA54EB-CB7C-4657-ACB6-C586FDE1B824}">
           <x14:formula1>
-            <xm:f>config!$B$5:$B$6</xm:f>
+            <xm:f>config!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -668,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BC86F6-9BB9-479F-9F33-E01D1435702D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,57 +641,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uLqQ+O3daP7Bt5EhpZFgflt4Advgcujs2UquQ7pnOvzld2oCbWTqdeM8D0LluiGk9yGbm8ViiwQ6lxrIur7X9Q==" saltValue="0qry8+YqDsH3e422Ed8Ukg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="ibmcmsender@gmail.com" xr:uid="{22C90184-816F-406D-BFC1-3A8A63AFF15A}"/>
-  </hyperlinks>
+  <sheetProtection algorithmName="SHA-512" hashValue="qQ0CTRM/IJE0ml6qO9m+kpAq8x5PPK5uqo/BqevsKlIU5Q1ApAlH38mLSj0f/jHLkpctiHplV7mym/ALLpKRcQ==" saltValue="eWOoSflK5o+qBeQMD+QyiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IBMContractNotifier/FilterRules.xlsx
+++ b/IBMContractNotifier/FilterRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ibmcn\ibmcn\ibmcn\IBMContractNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15316D5E-045A-4ED2-8E9F-837F837297EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D16EF-FDE7-414A-8D96-027FB33CEDA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
+    <workbookView xWindow="4188" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{1CB714F7-3499-46D3-9D64-0E4079AA7CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>OppName</t>
   </si>
   <si>
-    <t>sales order</t>
-  </si>
-  <si>
     <t>IMT</t>
   </si>
   <si>
@@ -64,40 +61,43 @@
     <t>AccountID</t>
   </si>
   <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TCV</t>
+  </si>
+  <si>
+    <t>Div Code</t>
+  </si>
+  <si>
+    <t>SignProbability</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>comparison type values</t>
+  </si>
+  <si>
+    <t>Included values</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
     <t>TBD</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>TCV</t>
-  </si>
-  <si>
-    <t>Div Code</t>
-  </si>
-  <si>
-    <t>SignProbability</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>contain</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>declined</t>
-  </si>
-  <si>
-    <t>comparison type values</t>
-  </si>
-  <si>
-    <t>Included values</t>
   </si>
 </sst>
 </file>
@@ -505,16 +505,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -523,61 +523,61 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -593,7 +593,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -641,26 +641,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
